--- a/biology/Botanique/Eriocaulales/Eriocaulales.xlsx
+++ b/biology/Botanique/Eriocaulales/Eriocaulales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eriocaulaceae sont une famille de plantes monocotylédones de l'ordre des Poales. Elle comprend 1 150 espèces réparties en une dizaine de genres. Ce sont des plantes herbacées, pérennes, à rosette, plus ou moins parcheminées, des régions subtropicales à tropicales (rarement des régions tempérées), principalement présentes en Amérique du Sud
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Eriocaulon dérivé du grec έριο / erio, laine, et καυλος /  caulos, tige ou pénis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Eriocaulon dérivé du grec έριο / erio, laine, et καυλος /  caulos, tige ou pénis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] c'est la seule famille de l'ordre des Eriocaulales Nakai (1930). La classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4] situent cette famille dans l'ordre des Poales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) c'est la seule famille de l'ordre des Eriocaulales Nakai (1930). La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent cette famille dans l'ordre des Poales.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010) :
 Actinocephalus (en)  (Körn.) Sano (2004)
 Blastocaulon (en)  Ruhland (1903)
 Eriocaulon  L. (1753)
@@ -587,7 +605,7 @@
 Rondonanthus (en)  Herzog (1931)
 Syngonanthus  Ruhland (1900)
 Tonina (en)  Aubl. (1775)
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 Blastocaulon Ruhland
 Eriocaulon L.
 Lachnocaulon Kunth
@@ -597,7 +615,7 @@
 Philodice Mart.
 Syngonanthus Ruhland
 Tonina Aubl.
-Selon NCBI  (20 avr. 2010)[7] :
+Selon NCBI  (20 avr. 2010) :
 Actinocephalus
 Blastocaulon
 Eriocaulon
@@ -608,7 +626,7 @@
 Rondonanthus
 Syngonanthus
 Tonina
-Selon DELTA Angio           (20 avr. 2010)[8] :
+Selon DELTA Angio           (20 avr. 2010) :
 Blastocaulon
 Eriocaulon
 Llachnocaulon
@@ -619,7 +637,7 @@
 Rhodonanthus
 Syngonanthus
 Tonina
-Selon ITIS      (20 avr. 2010)[9] :
+Selon ITIS      (20 avr. 2010) :
 Eriocaulon  L.
 Lachnocaulon  Kunth
 Syngonanthus  Ruhl.</t>
